--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:40:02+00:00</t>
+    <t>2022-08-08T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:46:36+00:00</t>
+    <t>2022-08-08T12:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:43:36+00:00</t>
+    <t>2022-08-08T13:51:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:51:59+00:00</t>
+    <t>2022-08-08T14:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:49:45+00:00</t>
+    <t>2022-08-09T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T06:53:55+00:00</t>
+    <t>2022-08-09T08:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:44:45+00:00</t>
+    <t>2022-08-09T08:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:50:44+00:00</t>
+    <t>2022-08-09T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T10:07:05+00:00</t>
+    <t>2022-08-09T11:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:02:47+00:00</t>
+    <t>2022-08-09T11:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:40:37+00:00</t>
+    <t>2022-08-09T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:56:01+00:00</t>
+    <t>2022-08-09T12:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:47:03+00:00</t>
+    <t>2022-08-09T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:07:41+00:00</t>
+    <t>2022-08-09T13:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:29:57+00:00</t>
+    <t>2022-08-09T15:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:06:14+00:00</t>
+    <t>2022-08-09T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:26:10+00:00</t>
+    <t>2022-08-09T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:34:44+00:00</t>
+    <t>2022-08-09T15:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:46:26+00:00</t>
+    <t>2022-08-10T01:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:00:29+00:00</t>
+    <t>2022-08-10T14:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T14:02:51+00:00</t>
+    <t>2022-08-12T01:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:06:24+00:00</t>
+    <t>2022-08-12T01:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:25:44+00:00</t>
+    <t>2022-08-12T05:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T05:25:03+00:00</t>
+    <t>2022-08-12T11:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T11:25:08+00:00</t>
+    <t>2022-08-12T14:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T14:21:21+00:00</t>
+    <t>2022-08-13T23:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T23:05:38+00:00</t>
+    <t>2022-08-15T03:50:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T03:50:58+00:00</t>
+    <t>2022-08-16T02:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:11:44+00:00</t>
+    <t>2022-08-16T02:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:16:31+00:00</t>
+    <t>2022-08-16T05:36:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T05:36:02+00:00</t>
+    <t>2022-08-16T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T08:28:52+00:00</t>
+    <t>2022-08-17T02:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T02:18:50+00:00</t>
+    <t>2022-08-19T07:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:58:38+00:00</t>
+    <t>2022-08-19T11:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T11:50:06+00:00</t>
+    <t>2022-08-19T12:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T12:05:20+00:00</t>
+    <t>2022-08-19T13:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T13:26:06+00:00</t>
+    <t>2022-08-19T22:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T22:47:44+00:00</t>
+    <t>2022-08-19T23:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T23:18:22+00:00</t>
+    <t>2022-08-20T06:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T06:38:45+00:00</t>
+    <t>2022-08-20T21:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T21:49:31+00:00</t>
+    <t>2022-08-22T05:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:20:45+00:00</t>
+    <t>2022-08-22T05:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:33:58+00:00</t>
+    <t>2022-08-23T04:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T04:13:25+00:00</t>
+    <t>2022-08-23T09:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T09:39:37+00:00</t>
+    <t>2022-08-23T11:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Medication YJ Code</t>
+    <t>JP Core Medication YJ ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T11:46:01+00:00</t>
+    <t>2022-08-23T14:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:14:41+00:00</t>
+    <t>2022-08-23T14:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:37:49+00:00</t>
+    <t>2022-08-24T00:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T00:00:04+00:00</t>
+    <t>2022-08-24T01:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T01:12:00+00:00</t>
+    <t>2022-08-24T05:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T05:56:06+00:00</t>
+    <t>2022-08-24T08:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T08:36:55+00:00</t>
+    <t>2022-08-25T07:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T07:26:37+00:00</t>
+    <t>2022-08-25T09:08:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T09:08:19+00:00</t>
+    <t>2022-08-26T06:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T06:24:45+00:00</t>
+    <t>2022-08-26T08:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:05:58+00:00</t>
+    <t>2022-08-26T08:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:35:36+00:00</t>
+    <t>2022-08-26T11:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:44:17+00:00</t>
+    <t>2022-08-26T11:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:46:15+00:00</t>
+    <t>2022-08-29T02:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T02:59:02+00:00</t>
+    <t>2022-08-29T03:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:09:31+00:00</t>
+    <t>2022-08-29T03:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:34:24+00:00</t>
+    <t>2022-08-29T04:09:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T04:09:01+00:00</t>
+    <t>2022-08-29T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T12:54:27+00:00</t>
+    <t>2022-08-29T13:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:08:49+00:00</t>
+    <t>2022-08-29T13:33:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:33:12+00:00</t>
+    <t>2022-08-29T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:08:50+00:00</t>
+    <t>2022-08-29T14:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:28:45+00:00</t>
+    <t>2022-08-30T01:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:48:21+00:00</t>
+    <t>2022-08-30T01:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:58:57+00:00</t>
+    <t>2022-08-31T03:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:49:51+00:00</t>
+    <t>2022-08-31T03:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:54:28+00:00</t>
+    <t>2022-08-31T04:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T04:03:32+00:00</t>
+    <t>2022-08-31T10:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:04:27+00:00</t>
+    <t>2022-08-31T10:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:47:17+00:00</t>
+    <t>2022-08-31T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:43:18+00:00</t>
+    <t>2022-08-31T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T13:42:36+00:00</t>
+    <t>2022-08-31T15:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:28:04+00:00</t>
+    <t>2022-08-31T15:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:55:44+00:00</t>
+    <t>2022-09-01T06:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T06:32:04+00:00</t>
+    <t>2022-09-01T12:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T12:04:59+00:00</t>
+    <t>2022-09-02T02:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T02:55:21+00:00</t>
+    <t>2022-09-02T03:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T03:38:16+00:00</t>
+    <t>2022-09-02T05:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.1.73</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeYJ_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:18:16+00:00</t>
+    <t>2022-09-02T05:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:23:11+00:00</t>
+    <t>2022-09-02T05:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:31:57+00:00</t>
+    <t>2022-09-02T07:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:37:55+00:00</t>
+    <t>2022-09-02T13:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T13:46:03+00:00</t>
+    <t>2022-09-02T14:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:13:59+00:00</t>
+    <t>2022-09-02T14:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:17:12+00:00</t>
+    <t>2022-09-02T14:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:29:53+00:00</t>
+    <t>2022-09-02T14:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T14:35:52+00:00</t>
+    <t>2022-09-02T15:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:10:38+00:00</t>
+    <t>2022-09-03T01:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T01:46:21+00:00</t>
+    <t>2022-09-03T13:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T13:39:51+00:00</t>
+    <t>2022-09-05T02:07:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T02:07:34+00:00</t>
+    <t>2022-09-05T03:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T03:06:13+00:00</t>
+    <t>2022-09-05T04:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T04:03:43+00:00</t>
+    <t>2022-09-05T05:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T05:18:44+00:00</t>
+    <t>2022-09-05T06:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T06:29:27+00:00</t>
+    <t>2022-09-05T10:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T10:47:02+00:00</t>
+    <t>2022-09-05T23:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T23:00:51+00:00</t>
+    <t>2022-09-06T08:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T08:38:56+00:00</t>
+    <t>2022-09-06T09:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:29:54+00:00</t>
+    <t>2022-09-06T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:17:19+00:00</t>
+    <t>2022-09-07T00:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T00:39:19+00:00</t>
+    <t>2022-09-07T05:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T05:54:57+00:00</t>
+    <t>2022-09-07T09:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:10:58+00:00</t>
+    <t>2022-09-08T21:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:26:37+00:00</t>
+    <t>2022-09-09T09:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:21+00:00</t>
+    <t>2022-09-09T10:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:24:51+00:00</t>
+    <t>2022-09-09T11:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:04:14+00:00</t>
+    <t>2022-09-09T11:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T11:59:54+00:00</t>
+    <t>2022-09-09T22:38:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T22:38:47+00:00</t>
+    <t>2022-09-11T10:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-11T10:13:05+00:00</t>
+    <t>2022-09-12T00:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T00:20:59+00:00</t>
+    <t>2022-09-12T01:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
